--- a/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF08F4F-F163-47F2-ACE0-4C08483653EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4160315C-8AD9-4856-AEF1-92759B26E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FEA84D8-E22B-41DA-9CB8-BC99EE814A01}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A47ABF04-105F-44D9-9BFF-92F17ACE5DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>93,5%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,16 +85,19 @@
     <t>95,67%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>97,92%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,49 +139,49 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>70,59%</t>
+    <t>68,17%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>29,41%</t>
+    <t>31,83%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -184,331 +190,319 @@
     <t>69,37%</t>
   </si>
   <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>6,85%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -517,13 +511,13 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>78,21%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -532,61 +526,67 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
+    <t>33,04%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>21,79%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F9DF06-C914-4B41-A395-32950D06CDAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1807F6-2547-49DA-A444-2F6ACE9FB198}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1155,16 +1155,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1173,13 +1173,13 @@
         <v>2525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1188,13 +1188,13 @@
         <v>4012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1203,13 +1203,13 @@
         <v>6537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1224,13 +1224,13 @@
         <v>38862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -1239,13 +1239,13 @@
         <v>92751</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>132</v>
@@ -1254,18 +1254,18 @@
         <v>131613</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>18550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1292,13 +1292,13 @@
         <v>36295</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -1307,19 +1307,19 @@
         <v>54844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1328,13 +1328,13 @@
         <v>1868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1343,13 +1343,13 @@
         <v>2946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1358,13 +1358,13 @@
         <v>4814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,13 +1379,13 @@
         <v>20418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -1394,13 +1394,13 @@
         <v>39241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -1409,18 +1409,18 @@
         <v>59658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1432,10 +1432,10 @@
         <v>3915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1450,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1462,10 +1462,10 @@
         <v>12595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1474,7 +1474,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1483,13 +1483,13 @@
         <v>1729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1513,13 +1513,13 @@
         <v>1729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,13 +1534,13 @@
         <v>5644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1549,13 +1549,13 @@
         <v>8680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1564,13 +1564,13 @@
         <v>14324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1587,13 @@
         <v>58801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1602,13 +1602,13 @@
         <v>133714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -1617,19 +1617,19 @@
         <v>192515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1638,13 +1638,13 @@
         <v>6123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1653,13 +1653,13 @@
         <v>6958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1668,13 +1668,13 @@
         <v>13081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1689,13 @@
         <v>64924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>136</v>
@@ -1704,13 +1704,13 @@
         <v>140672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>203</v>
@@ -1719,18 +1719,18 @@
         <v>205596</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EABE72D-206C-48AA-B4B3-95EBE28E5FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9B3B9A-AE0D-4E87-9442-E070249BC77A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1766,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1876,10 +1876,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -1888,10 +1888,10 @@
         <v>131855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1903,10 +1903,10 @@
         <v>157625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1915,7 +1915,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1924,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1939,13 +1939,13 @@
         <v>2060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1954,13 +1954,13 @@
         <v>2060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1975,13 @@
         <v>25770</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>123</v>
@@ -1990,13 +1990,13 @@
         <v>133915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -2005,18 +2005,18 @@
         <v>159685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2043,7 +2043,7 @@
         <v>73563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>90</v>
@@ -2070,7 +2070,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>94</v>
@@ -2094,10 +2094,10 @@
         <v>963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>95</v>
@@ -2112,7 +2112,7 @@
         <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>97</v>
@@ -2130,13 +2130,13 @@
         <v>33993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2145,13 +2145,13 @@
         <v>74526</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -2160,18 +2160,18 @@
         <v>108519</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2225,7 +2225,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>105</v>
@@ -2252,7 +2252,7 @@
         <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>107</v>
@@ -2267,7 +2267,7 @@
         <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>109</v>
@@ -2285,13 +2285,13 @@
         <v>7362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2300,13 +2300,13 @@
         <v>12328</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2315,13 +2315,13 @@
         <v>19690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2380,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2392,7 +2392,7 @@
         <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>119</v>
@@ -2440,13 +2440,13 @@
         <v>67125</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>203</v>
@@ -2455,13 +2455,13 @@
         <v>220770</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2470,18 +2470,18 @@
         <v>287895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D63C566-5112-49BB-91D4-29F7B65A97C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24CD712-2723-4F76-AD25-C43E6250B6E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2645,7 +2645,7 @@
         <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -2654,19 +2654,19 @@
         <v>182434</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2675,13 +2675,13 @@
         <v>1809</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2690,13 +2690,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2705,13 +2705,13 @@
         <v>8291</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>42842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>132</v>
@@ -2741,13 +2741,13 @@
         <v>147883</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
@@ -2756,18 +2756,18 @@
         <v>190725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2779,10 +2779,10 @@
         <v>30613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2791,13 +2791,13 @@
         <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>94135</v>
+        <v>94134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2809,19 +2809,19 @@
         <v>124748</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2830,13 +2830,13 @@
         <v>2142</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2845,13 +2845,13 @@
         <v>2045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2860,13 +2860,13 @@
         <v>4186</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,28 +2881,28 @@
         <v>32755</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>96180</v>
+        <v>96179</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>117</v>
@@ -2911,18 +2911,18 @@
         <v>128934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2937,10 +2937,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2949,10 +2949,10 @@
         <v>16790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2964,10 +2964,10 @@
         <v>27100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2976,7 +2976,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3000,13 +3000,13 @@
         <v>2043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3015,13 +3015,13 @@
         <v>2043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3036,13 @@
         <v>10310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3051,13 +3051,13 @@
         <v>18833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -3066,13 +3066,13 @@
         <v>29143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3089,13 @@
         <v>81957</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3104,13 +3104,13 @@
         <v>252327</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -3119,19 +3119,19 @@
         <v>334283</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -3140,13 +3140,13 @@
         <v>3950</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3155,13 +3155,13 @@
         <v>10569</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3170,10 +3170,10 @@
         <v>14520</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>182</v>
@@ -3191,13 +3191,13 @@
         <v>85907</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>236</v>
@@ -3206,13 +3206,13 @@
         <v>262896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>318</v>
@@ -3221,18 +3221,18 @@
         <v>348803</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4160315C-8AD9-4856-AEF1-92759B26E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE231E5-ED86-4886-AE1C-DC33390CB31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A47ABF04-105F-44D9-9BFF-92F17ACE5DD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0861E2BB-E88B-4861-B739-E64FC2F480CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>93,5%</t>
   </si>
   <si>
-    <t>77,38%</t>
+    <t>77,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>95,67%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,62%</t>
+    <t>22,23%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,49 +139,49 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>68,17%</t>
+    <t>70,37%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>31,83%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -190,7 +190,7 @@
     <t>69,37%</t>
   </si>
   <si>
-    <t>19,39%</t>
+    <t>33,81%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -199,13 +199,13 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>61,71%</t>
+    <t>62,57%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>80,61%</t>
+    <t>66,19%</t>
   </si>
   <si>
     <t>0%</t>
@@ -217,61 +217,61 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>38,29%</t>
+    <t>37,43%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -292,6 +292,9 @@
     <t>98,71%</t>
   </si>
   <si>
+    <t>95,43%</t>
+  </si>
+  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -304,205 +307,208 @@
     <t>1,29%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>93,96%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>6,04%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>42,89%</t>
+    <t>36,57%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>50,71%</t>
+    <t>39,21%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>59,02%</t>
+    <t>59,27%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>57,11%</t>
+    <t>63,43%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>49,29%</t>
+    <t>60,79%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>90,24%</t>
+    <t>90,54%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>9,76%</t>
+    <t>9,46%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>86,62%</t>
+    <t>86,68%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>90,82%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>13,38%</t>
+    <t>13,32%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>9,18%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -511,13 +517,13 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>66,96%</t>
+    <t>69,51%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>78,21%</t>
+    <t>75,86%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -526,37 +532,37 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>33,04%</t>
+    <t>30,49%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>21,79%</t>
+    <t>24,14%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>93,19%</t>
+    <t>93,39%</t>
   </si>
   <si>
     <t>97,63%</t>
@@ -565,19 +571,19 @@
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -586,7 +592,7 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>6,61%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1807F6-2547-49DA-A444-2F6ACE9FB198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53B09D-3677-4C50-B7C1-DD26C4116D0E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9B3B9A-AE0D-4E87-9442-E070249BC77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9E9D86-D358-4142-A839-BDF941DB96C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1906,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1930,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1939,13 +1945,13 @@
         <v>2060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1954,13 +1960,13 @@
         <v>2060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,10 +2034,10 @@
         <v>33143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2046,7 +2052,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2058,10 +2064,10 @@
         <v>106706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2079,13 +2085,13 @@
         <v>850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2094,13 +2100,13 @@
         <v>963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2109,13 +2115,13 @@
         <v>1813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,10 +2189,10 @@
         <v>6432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2198,10 +2204,10 @@
         <v>10694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2213,10 +2219,10 @@
         <v>17126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2234,13 +2240,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2249,13 +2255,13 @@
         <v>1634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2264,13 +2270,13 @@
         <v>2564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,10 +2344,10 @@
         <v>65346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2353,13 +2359,13 @@
         <v>216113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -2368,13 +2374,13 @@
         <v>281458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2395,13 @@
         <v>1779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2404,13 +2410,13 @@
         <v>4657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2419,13 +2425,13 @@
         <v>6437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24CD712-2723-4F76-AD25-C43E6250B6E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4BF3B5-6F95-44C1-9A7D-4DF61ED15EEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2624,10 +2630,10 @@
         <v>41033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2639,13 +2645,13 @@
         <v>141401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -2654,13 +2660,13 @@
         <v>182434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>1809</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2690,13 +2696,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2705,13 +2711,13 @@
         <v>8291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,10 +2785,10 @@
         <v>30613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2791,13 +2797,13 @@
         <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>94134</v>
+        <v>94135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2809,13 +2815,13 @@
         <v>124748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2836,13 @@
         <v>2142</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2845,13 +2851,13 @@
         <v>2045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2860,13 +2866,13 @@
         <v>4186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2899,7 @@
         <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>96179</v>
+        <v>96180</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2937,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2949,10 +2955,10 @@
         <v>16790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2964,10 +2970,10 @@
         <v>27100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2991,7 +2997,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3000,13 +3006,13 @@
         <v>2043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3015,13 +3021,13 @@
         <v>2043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3095,13 @@
         <v>81957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3104,13 +3110,13 @@
         <v>252327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -3119,13 +3125,13 @@
         <v>334283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3146,13 @@
         <v>3950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3155,13 +3161,13 @@
         <v>10569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3170,13 +3176,13 @@
         <v>14520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE231E5-ED86-4886-AE1C-DC33390CB31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{931F33EA-AD31-49A6-8BE1-ED32E768309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0861E2BB-E88B-4861-B739-E64FC2F480CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BFE6B706-12D1-49F7-891A-472E5D54521E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>79,42%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,16 @@
     <t>95,67%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +106,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,23%</t>
+    <t>20,58%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,367 +133,373 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>70,37%</t>
+    <t>70,59%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>80,96%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -508,7 +508,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>8,23%</t>
+    <t>7,57%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -517,13 +517,13 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>69,51%</t>
+    <t>69,08%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>75,86%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -532,67 +532,61 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>30,49%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>24,14%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>93,44%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>6,56%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53B09D-3677-4C50-B7C1-DD26C4116D0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A70EF7-421A-4B0C-8FF2-3BBA0453431B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1161,16 +1155,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1179,13 +1173,13 @@
         <v>2525</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1194,13 +1188,13 @@
         <v>4012</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1209,13 +1203,13 @@
         <v>6537</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1230,13 +1224,13 @@
         <v>38862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -1245,13 +1239,13 @@
         <v>92751</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>132</v>
@@ -1260,18 +1254,18 @@
         <v>131613</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1283,10 +1277,10 @@
         <v>18550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1298,13 +1292,13 @@
         <v>36295</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -1313,19 +1307,19 @@
         <v>54844</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1334,13 +1328,13 @@
         <v>1868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1349,13 +1343,13 @@
         <v>2946</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1364,13 +1358,13 @@
         <v>4814</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,13 +1379,13 @@
         <v>20418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -1400,13 +1394,13 @@
         <v>39241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -1415,18 +1409,18 @@
         <v>59658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1438,10 +1432,10 @@
         <v>3915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1456,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1468,10 +1462,10 @@
         <v>12595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1480,7 +1474,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1489,13 +1483,13 @@
         <v>1729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1504,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1519,13 +1513,13 @@
         <v>1729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1534,13 @@
         <v>5644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1555,13 +1549,13 @@
         <v>8680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1570,13 +1564,13 @@
         <v>14324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1587,13 @@
         <v>58801</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1608,13 +1602,13 @@
         <v>133714</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -1623,19 +1617,19 @@
         <v>192515</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1644,13 +1638,13 @@
         <v>6123</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1659,13 +1653,13 @@
         <v>6958</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1674,13 +1668,13 @@
         <v>13081</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,13 +1689,13 @@
         <v>64924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>136</v>
@@ -1710,13 +1704,13 @@
         <v>140672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>203</v>
@@ -1725,18 +1719,18 @@
         <v>205596</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9E9D86-D358-4142-A839-BDF941DB96C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44EF8E-ABA2-44A2-A250-10F51018A9A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1772,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1882,10 +1876,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -1894,10 +1888,10 @@
         <v>131855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1909,10 +1903,10 @@
         <v>157625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1921,7 +1915,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1930,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1945,13 +1939,13 @@
         <v>2060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1960,13 +1954,13 @@
         <v>2060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>25770</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>123</v>
@@ -1996,13 +1990,13 @@
         <v>133915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -2011,18 +2005,18 @@
         <v>159685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2034,10 +2028,10 @@
         <v>33143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2049,10 +2043,10 @@
         <v>73563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2064,10 +2058,10 @@
         <v>106706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2076,7 +2070,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2085,13 +2079,13 @@
         <v>850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2100,13 +2094,13 @@
         <v>963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2115,13 +2109,13 @@
         <v>1813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2130,13 @@
         <v>33993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2151,13 +2145,13 @@
         <v>74526</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -2166,18 +2160,18 @@
         <v>108519</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2189,10 +2183,10 @@
         <v>6432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2204,10 +2198,10 @@
         <v>10694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2219,10 +2213,10 @@
         <v>17126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2231,7 +2225,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2240,13 +2234,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2255,13 +2249,13 @@
         <v>1634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2270,13 +2264,13 @@
         <v>2564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2285,13 @@
         <v>7362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2306,13 +2300,13 @@
         <v>12328</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2321,13 +2315,13 @@
         <v>19690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,10 +2338,10 @@
         <v>65346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2359,13 +2353,13 @@
         <v>216113</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -2374,19 +2368,19 @@
         <v>281458</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2395,13 +2389,13 @@
         <v>1779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2410,13 +2404,13 @@
         <v>4657</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2425,13 +2419,13 @@
         <v>6437</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2440,13 @@
         <v>67125</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>203</v>
@@ -2461,13 +2455,13 @@
         <v>220770</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2476,18 +2470,18 @@
         <v>287895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4BF3B5-6F95-44C1-9A7D-4DF61ED15EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F907537-F309-4A20-A0E0-662714D97FA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2630,10 +2624,10 @@
         <v>41033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2645,13 +2639,13 @@
         <v>141401</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -2660,19 +2654,19 @@
         <v>182434</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2681,13 +2675,13 @@
         <v>1809</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2696,13 +2690,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2711,13 +2705,13 @@
         <v>8291</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2726,13 @@
         <v>42842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>132</v>
@@ -2747,13 +2741,13 @@
         <v>147883</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
@@ -2762,18 +2756,18 @@
         <v>190725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2785,10 +2779,10 @@
         <v>30613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2800,10 +2794,10 @@
         <v>94135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2815,19 +2809,19 @@
         <v>124748</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2836,13 +2830,13 @@
         <v>2142</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2851,10 +2845,10 @@
         <v>2045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>153</v>
@@ -2887,13 +2881,13 @@
         <v>32755</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2902,13 +2896,13 @@
         <v>96180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>117</v>
@@ -2917,18 +2911,18 @@
         <v>128934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2946,7 +2940,7 @@
         <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2982,7 +2976,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2991,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>162</v>
@@ -3009,7 +3003,7 @@
         <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>164</v>
@@ -3024,7 +3018,7 @@
         <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>166</v>
@@ -3042,13 +3036,13 @@
         <v>10310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3057,13 +3051,13 @@
         <v>18833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -3072,13 +3066,13 @@
         <v>29143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -3146,13 +3140,13 @@
         <v>3950</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3161,13 +3155,13 @@
         <v>10569</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3176,13 +3170,13 @@
         <v>14520</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3191,13 @@
         <v>85907</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>236</v>
@@ -3212,13 +3206,13 @@
         <v>262896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>318</v>
@@ -3227,18 +3221,18 @@
         <v>348803</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931F33EA-AD31-49A6-8BE1-ED32E768309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5920F0-41F5-4357-BEB9-ACE251287466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BFE6B706-12D1-49F7-891A-472E5D54521E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4337EEB-F39A-4B2B-B72E-7494C673071F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A70EF7-421A-4B0C-8FF2-3BBA0453431B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC37116-C664-4089-ABAA-FFABFB4C9B90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44EF8E-ABA2-44A2-A250-10F51018A9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F476AD-9123-4D65-9561-BA30122F9EBE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F907537-F309-4A20-A0E0-662714D97FA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC15548-D1BB-4C4F-ADB4-796D602E1B1C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2791,7 @@
         <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>94135</v>
+        <v>94134</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>145</v>
@@ -2893,7 +2893,7 @@
         <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>96180</v>
+        <v>96179</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
